--- a/AAII_Financials/Quarterly/AEMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEMD_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>AEMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,97 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
+      <c r="D8" s="3">
+        <v>400</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
@@ -761,7 +764,7 @@
         <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -773,10 +776,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -978,11 +997,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1002,19 +1021,22 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1200</v>
       </c>
       <c r="L17" s="3">
         <v>1200</v>
       </c>
       <c r="M17" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="N17" s="3">
         <v>1500</v>
       </c>
       <c r="O17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>-900</v>
       </c>
       <c r="E18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1500</v>
       </c>
       <c r="N18" s="3">
         <v>-1500</v>
       </c>
       <c r="O18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,13 +1210,14 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1211,63 +1244,69 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>-800</v>
       </c>
       <c r="E21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-1200</v>
       </c>
       <c r="L21" s="3">
         <v>-1200</v>
       </c>
       <c r="M21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1299,63 +1338,69 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,13 +1772,16 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1739,63 +1808,69 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
-      </c>
-      <c r="O41" s="3">
-        <v>600</v>
       </c>
       <c r="P41" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,19 +2144,22 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
+      <c r="D43" s="3">
+        <v>200</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2076,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
+      <c r="K43" s="3">
+        <v>100</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>5</v>
@@ -2090,17 +2182,20 @@
       <c r="M43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,40 +2238,43 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2185,54 +2283,60 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2379,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2284,11 +2391,11 @@
         <v>300</v>
       </c>
       <c r="E48" s="3">
+        <v>300</v>
+      </c>
+      <c r="F48" s="3">
         <v>200</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
@@ -2319,8 +2426,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,20 +2748,21 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
@@ -2646,25 +2776,28 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
       </c>
       <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2672,19 +2805,19 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>900</v>
       </c>
       <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+      <c r="I58" s="3">
+        <v>900</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -2704,38 +2837,41 @@
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
         <v>600</v>
       </c>
       <c r="F59" s="3">
+        <v>600</v>
+      </c>
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
       </c>
       <c r="J59" s="3">
+        <v>300</v>
+      </c>
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
-        <v>100</v>
-      </c>
       <c r="L59" s="3">
         <v>100</v>
       </c>
@@ -2751,16 +2887,19 @@
       <c r="P59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1800</v>
       </c>
       <c r="F60" s="3">
         <v>1800</v>
@@ -2769,34 +2908,37 @@
         <v>1800</v>
       </c>
       <c r="H60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I60" s="3">
         <v>1300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>500</v>
       </c>
       <c r="J60" s="3">
         <v>500</v>
       </c>
       <c r="K60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
       </c>
       <c r="M60" s="3">
+        <v>300</v>
+      </c>
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2816,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>900</v>
-      </c>
-      <c r="J61" s="3">
-        <v>800</v>
       </c>
       <c r="K61" s="3">
         <v>800</v>
@@ -2828,19 +2970,22 @@
         <v>800</v>
       </c>
       <c r="M61" s="3">
+        <v>800</v>
+      </c>
+      <c r="N61" s="3">
         <v>1100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2850,8 +2995,8 @@
       <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
+      <c r="F62" s="3">
+        <v>100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>5</v>
@@ -2865,8 +3010,8 @@
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1700</v>
       </c>
       <c r="G66" s="3">
         <v>1700</v>
       </c>
       <c r="H66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I66" s="3">
         <v>1100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1200</v>
       </c>
       <c r="J66" s="3">
         <v>1200</v>
       </c>
       <c r="K66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-110200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-109400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-107700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-105700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-104000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-102000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-100600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-99500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-98100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-96900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-95600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-93800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-92100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-90900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>100</v>
+        <v>3900</v>
       </c>
       <c r="E76" s="3">
+        <v>100</v>
+      </c>
+      <c r="F76" s="3">
         <v>1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4700</v>
       </c>
-      <c r="L76" s="3">
-        <v>100</v>
-      </c>
       <c r="M76" s="3">
+        <v>100</v>
+      </c>
+      <c r="N76" s="3">
         <v>-900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>700</v>
       </c>
-      <c r="O76" s="3">
-        <v>100</v>
-      </c>
       <c r="P76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,19 +4173,20 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
@@ -3977,8 +4197,8 @@
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,17 +4312,20 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>AEMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,120 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -779,10 +787,16 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1000,14 +1040,14 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1024,19 +1064,25 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,19 +1150,21 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2000</v>
       </c>
       <c r="G17" s="3">
         <v>1700</v>
@@ -1119,10 +1173,10 @@
         <v>2000</v>
       </c>
       <c r="I17" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="J17" s="3">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="K17" s="3">
         <v>1300</v>
@@ -1131,48 +1185,54 @@
         <v>1200</v>
       </c>
       <c r="M17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1600</v>
       </c>
       <c r="H18" s="3">
         <v>-2000</v>
       </c>
       <c r="I18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1200</v>
       </c>
       <c r="L18" s="3">
         <v>-1100</v>
@@ -1181,19 +1241,25 @@
         <v>-1200</v>
       </c>
       <c r="N18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,19 +1277,21 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>100</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1247,66 +1315,78 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-1600</v>
       </c>
       <c r="H21" s="3">
         <v>-2000</v>
       </c>
       <c r="I21" s="3">
-        <v>-1300</v>
+        <v>-1600</v>
       </c>
       <c r="J21" s="3">
-        <v>-1100</v>
+        <v>-2000</v>
       </c>
       <c r="K21" s="3">
         <v>-1300</v>
       </c>
       <c r="L21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1317,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1341,45 +1421,51 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1300</v>
       </c>
       <c r="L23" s="3">
         <v>-1200</v>
@@ -1388,19 +1474,25 @@
         <v>-1300</v>
       </c>
       <c r="N23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,34 +1591,40 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-1300</v>
       </c>
       <c r="L26" s="3">
         <v>-1200</v>
@@ -1529,66 +1633,78 @@
         <v>-1300</v>
       </c>
       <c r="N26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-1200</v>
       </c>
       <c r="M27" s="3">
         <v>-1300</v>
       </c>
       <c r="N27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,20 +1909,26 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1811,66 +1951,78 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-1200</v>
       </c>
       <c r="M33" s="3">
         <v>-1300</v>
       </c>
       <c r="N33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-1200</v>
       </c>
       <c r="M35" s="3">
         <v>-1300</v>
       </c>
       <c r="N35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F41" s="3">
         <v>4100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>5100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>5600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,55 +2327,67 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>200</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
+        <v>100</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,102 +2433,120 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F46" s="3">
         <v>4300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>5200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>7200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2394,14 +2610,14 @@
         <v>300</v>
       </c>
       <c r="F48" s="3">
+        <v>300</v>
+      </c>
+      <c r="G48" s="3">
+        <v>300</v>
+      </c>
+      <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
@@ -2429,8 +2645,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>100</v>
+      </c>
+      <c r="S49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F54" s="3">
         <v>4700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2758,16 +3020,16 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -2779,51 +3041,57 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>500</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
       </c>
       <c r="Q57" s="3">
+        <v>500</v>
+      </c>
+      <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>900</v>
       </c>
       <c r="I58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
+      <c r="K58" s="3">
+        <v>900</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>5</v>
@@ -2840,44 +3108,50 @@
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
-        <v>100</v>
-      </c>
-      <c r="M59" s="3">
-        <v>100</v>
-      </c>
       <c r="N59" s="3">
         <v>100</v>
       </c>
@@ -2890,55 +3164,67 @@
       <c r="Q59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1800</v>
       </c>
       <c r="H60" s="3">
         <v>1800</v>
       </c>
       <c r="I60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>600</v>
       </c>
       <c r="P60" s="3">
         <v>400</v>
       </c>
       <c r="Q60" s="3">
+        <v>600</v>
+      </c>
+      <c r="R60" s="3">
+        <v>400</v>
+      </c>
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2961,48 +3247,54 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>900</v>
-      </c>
-      <c r="K61" s="3">
-        <v>800</v>
-      </c>
-      <c r="L61" s="3">
-        <v>800</v>
       </c>
       <c r="M61" s="3">
         <v>800</v>
       </c>
       <c r="N61" s="3">
+        <v>800</v>
+      </c>
+      <c r="O61" s="3">
+        <v>800</v>
+      </c>
+      <c r="P61" s="3">
         <v>1100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
+      <c r="G62" s="3">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
@@ -3013,11 +3305,11 @@
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1400</v>
       </c>
       <c r="O66" s="3">
         <v>1000</v>
       </c>
       <c r="P66" s="3">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="Q66" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>700</v>
+      </c>
+      <c r="S66" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-113400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-110200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-109400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-107700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-105700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-104000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-102000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-100600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-99500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-98100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-96900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-95600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-93800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-92100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-90900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F76" s="3">
         <v>3900</v>
       </c>
-      <c r="E76" s="3">
-        <v>100</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
+        <v>100</v>
+      </c>
+      <c r="H76" s="3">
         <v>1100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4700</v>
       </c>
-      <c r="M76" s="3">
-        <v>100</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
+        <v>100</v>
+      </c>
+      <c r="P76" s="3">
         <v>-900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>700</v>
       </c>
-      <c r="P76" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
+        <v>100</v>
+      </c>
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-1200</v>
       </c>
       <c r="M81" s="3">
         <v>-1300</v>
       </c>
       <c r="N81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,31 +4536,37 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-800</v>
       </c>
       <c r="K89" s="3">
         <v>-1000</v>
@@ -4144,19 +4578,25 @@
         <v>-1000</v>
       </c>
       <c r="N89" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="O89" s="3">
         <v>-1000</v>
       </c>
       <c r="P89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4183,16 +4625,16 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
@@ -4200,11 +4642,11 @@
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4324,14 +4784,14 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F100" s="3">
         <v>4600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>2400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>5500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F102" s="3">
         <v>3300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-300</v>
       </c>
       <c r="I102" s="3">
         <v>-1000</v>
       </c>
       <c r="J102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>4700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>900</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>AEMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -751,28 +755,28 @@
         <v>5</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
@@ -781,7 +785,7 @@
         <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -793,10 +797,13 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1046,11 +1066,11 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1070,19 +1090,22 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1200</v>
       </c>
       <c r="O17" s="3">
         <v>1200</v>
       </c>
       <c r="P17" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="Q17" s="3">
         <v>1500</v>
       </c>
       <c r="R17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1244,55 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-1500</v>
       </c>
       <c r="Q18" s="3">
         <v>-1500</v>
       </c>
       <c r="R18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1291,10 +1325,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1321,19 +1355,22 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1378,55 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-1200</v>
       </c>
       <c r="O21" s="3">
         <v>-1200</v>
       </c>
       <c r="P21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1403,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1427,72 +1467,78 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1927,11 +1997,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1957,72 +2027,78 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E41" s="3">
         <v>15700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1600</v>
-      </c>
-      <c r="R41" s="3">
-        <v>600</v>
       </c>
       <c r="S41" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,13 +2423,16 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
@@ -2347,14 +2440,14 @@
       <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
+      <c r="G43" s="3">
+        <v>200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="I43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2363,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
+      <c r="N43" s="3">
+        <v>100</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>5</v>
@@ -2377,17 +2470,20 @@
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2451,37 +2550,37 @@
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2490,63 +2589,69 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E46" s="3">
         <v>16100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,13 +2703,16 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>300</v>
@@ -2616,11 +2724,11 @@
         <v>300</v>
       </c>
       <c r="H48" s="3">
+        <v>300</v>
+      </c>
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E54" s="3">
         <v>16400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3026,14 +3157,14 @@
         <v>300</v>
       </c>
       <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
@@ -3047,33 +3178,36 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
       </c>
       <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3082,19 +3216,19 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>900</v>
       </c>
       <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
+      <c r="L58" s="3">
+        <v>900</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
@@ -3114,47 +3248,50 @@
       <c r="R58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>600</v>
       </c>
       <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
-      </c>
-      <c r="K59" s="3">
-        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
       </c>
       <c r="M59" s="3">
+        <v>300</v>
+      </c>
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
-        <v>100</v>
-      </c>
       <c r="O59" s="3">
         <v>100</v>
       </c>
@@ -3170,25 +3307,28 @@
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1800</v>
       </c>
       <c r="I60" s="3">
         <v>1800</v>
@@ -3197,34 +3337,37 @@
         <v>1800</v>
       </c>
       <c r="K60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L60" s="3">
         <v>1300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>500</v>
       </c>
       <c r="M60" s="3">
         <v>500</v>
       </c>
       <c r="N60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="O60" s="3">
         <v>300</v>
       </c>
       <c r="P60" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3253,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>900</v>
-      </c>
-      <c r="M61" s="3">
-        <v>800</v>
       </c>
       <c r="N61" s="3">
         <v>800</v>
@@ -3265,19 +3408,22 @@
         <v>800</v>
       </c>
       <c r="P61" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>400</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3288,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -3296,8 +3442,8 @@
       <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -3311,8 +3457,8 @@
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1700</v>
       </c>
       <c r="J66" s="3">
         <v>1700</v>
       </c>
       <c r="K66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L66" s="3">
         <v>1100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1200</v>
       </c>
       <c r="M66" s="3">
         <v>1200</v>
       </c>
       <c r="N66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-115200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-113400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-112000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-110200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-109400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-107700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-105700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-104000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-102000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-100600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-99500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-98100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-96900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-95600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-93800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-92100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-90900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E76" s="3">
         <v>15300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3900</v>
       </c>
-      <c r="G76" s="3">
-        <v>100</v>
-      </c>
       <c r="H76" s="3">
+        <v>100</v>
+      </c>
+      <c r="I76" s="3">
         <v>1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4700</v>
       </c>
-      <c r="O76" s="3">
-        <v>100</v>
-      </c>
       <c r="P76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>700</v>
       </c>
-      <c r="R76" s="3">
-        <v>100</v>
-      </c>
       <c r="S76" s="3">
+        <v>100</v>
+      </c>
+      <c r="T76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4631,13 +4852,13 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
@@ -4648,8 +4869,8 @@
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4790,11 +5020,11 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>7200</v>
       </c>
       <c r="F100" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G100" s="3">
         <v>4600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>2400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>6100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>900</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>AEMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,124 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
+      <c r="D8" s="3">
+        <v>600</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
@@ -788,7 +791,7 @@
         <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -800,10 +803,13 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1069,11 +1088,11 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1093,19 +1112,22 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1200</v>
       </c>
       <c r="P17" s="3">
         <v>1200</v>
       </c>
       <c r="Q17" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="R17" s="3">
         <v>1500</v>
       </c>
       <c r="S17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>-2500</v>
       </c>
       <c r="E18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-1500</v>
       </c>
       <c r="R18" s="3">
         <v>-1500</v>
       </c>
       <c r="S18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="T18" s="3">
         <v>-1200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,13 +1345,14 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1328,10 +1361,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1358,75 +1391,81 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>-2400</v>
       </c>
       <c r="E21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-1200</v>
       </c>
       <c r="P21" s="3">
         <v>-1200</v>
       </c>
       <c r="Q21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R21" s="3">
         <v>-1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1446,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1470,75 +1509,81 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,13 +2051,16 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2000,11 +2069,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2030,75 +2099,81 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E41" s="3">
         <v>14500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1600</v>
-      </c>
-      <c r="S41" s="3">
-        <v>600</v>
       </c>
       <c r="T41" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,7 +2527,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
@@ -2443,14 +2535,14 @@
       <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
+      <c r="H43" s="3">
+        <v>200</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2459,13 +2551,13 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
+      <c r="O43" s="3">
+        <v>100</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>5</v>
@@ -2473,17 +2565,20 @@
       <c r="Q43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,13 +2633,16 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
@@ -2553,37 +2651,37 @@
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2592,66 +2690,72 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E46" s="3">
         <v>14800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2715,7 +2822,7 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>300</v>
@@ -2727,11 +2834,11 @@
         <v>300</v>
       </c>
       <c r="I48" s="3">
+        <v>300</v>
+      </c>
+      <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,13 +3046,16 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E54" s="3">
         <v>15100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,13 +3271,14 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
@@ -3160,14 +3290,14 @@
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
@@ -3181,25 +3311,28 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
       </c>
       <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3209,8 +3342,8 @@
       <c r="E58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3219,19 +3352,19 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>900</v>
       </c>
       <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
+      <c r="M58" s="3">
+        <v>900</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>5</v>
@@ -3251,50 +3384,53 @@
       <c r="S58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>600</v>
       </c>
       <c r="I59" s="3">
         <v>600</v>
       </c>
       <c r="J59" s="3">
+        <v>600</v>
+      </c>
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
-      </c>
-      <c r="L59" s="3">
-        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
       </c>
       <c r="N59" s="3">
+        <v>300</v>
+      </c>
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
-        <v>100</v>
-      </c>
       <c r="P59" s="3">
         <v>100</v>
       </c>
@@ -3310,28 +3446,31 @@
       <c r="T59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1800</v>
       </c>
       <c r="J60" s="3">
         <v>1800</v>
@@ -3340,34 +3479,37 @@
         <v>1800</v>
       </c>
       <c r="L60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M60" s="3">
         <v>1300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>500</v>
       </c>
       <c r="N60" s="3">
         <v>500</v>
       </c>
       <c r="O60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
       </c>
       <c r="Q60" s="3">
+        <v>300</v>
+      </c>
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3399,10 +3541,10 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>900</v>
-      </c>
-      <c r="N61" s="3">
-        <v>800</v>
       </c>
       <c r="O61" s="3">
         <v>800</v>
@@ -3411,19 +3553,22 @@
         <v>800</v>
       </c>
       <c r="Q61" s="3">
+        <v>800</v>
+      </c>
+      <c r="R61" s="3">
         <v>1100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>400</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3437,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -3445,8 +3590,8 @@
       <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
+      <c r="J62" s="3">
+        <v>100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
@@ -3460,8 +3605,8 @@
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1700</v>
       </c>
       <c r="K66" s="3">
         <v>1700</v>
       </c>
       <c r="L66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M66" s="3">
         <v>1100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1200</v>
       </c>
       <c r="N66" s="3">
         <v>1200</v>
       </c>
       <c r="O66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-117700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-115200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-113400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-112000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-110200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-109400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-107700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-105700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-104000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-102000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-100600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-99500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-98100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-96900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-95600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-93800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-92100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-90900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E76" s="3">
         <v>13700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3900</v>
       </c>
-      <c r="H76" s="3">
-        <v>100</v>
-      </c>
       <c r="I76" s="3">
+        <v>100</v>
+      </c>
+      <c r="J76" s="3">
         <v>1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4700</v>
       </c>
-      <c r="P76" s="3">
-        <v>100</v>
-      </c>
       <c r="Q76" s="3">
+        <v>100</v>
+      </c>
+      <c r="R76" s="3">
         <v>-900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>700</v>
       </c>
-      <c r="S76" s="3">
-        <v>100</v>
-      </c>
       <c r="T76" s="3">
+        <v>100</v>
+      </c>
+      <c r="U76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4855,13 +5075,13 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
@@ -4872,8 +5092,8 @@
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5023,11 +5252,11 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>7200</v>
       </c>
       <c r="G100" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H100" s="3">
         <v>4600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>2400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>900</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>AEMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,147 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -806,10 +814,16 @@
         <v>0</v>
       </c>
       <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,8 +881,14 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +946,14 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,13 +1101,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1091,14 +1131,14 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1115,19 +1155,25 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,31 +1257,33 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F17" s="3">
         <v>3100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2000</v>
       </c>
       <c r="K17" s="3">
         <v>1700</v>
@@ -1238,10 +1292,10 @@
         <v>2000</v>
       </c>
       <c r="M17" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="N17" s="3">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="O17" s="3">
         <v>1300</v>
@@ -1250,60 +1304,66 @@
         <v>1200</v>
       </c>
       <c r="Q17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T17" s="3">
         <v>1500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2500</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-1400</v>
       </c>
       <c r="G18" s="3">
         <v>-1800</v>
       </c>
       <c r="H18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1600</v>
       </c>
       <c r="L18" s="3">
         <v>-2000</v>
       </c>
       <c r="M18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-1200</v>
       </c>
       <c r="P18" s="3">
         <v>-1100</v>
@@ -1312,19 +1372,25 @@
         <v>-1200</v>
       </c>
       <c r="R18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T18" s="3">
         <v>-1500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1412,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1364,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1394,78 +1462,90 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2400</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-1400</v>
       </c>
       <c r="G21" s="3">
         <v>-1800</v>
       </c>
       <c r="H21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-1600</v>
       </c>
       <c r="L21" s="3">
         <v>-2000</v>
       </c>
       <c r="M21" s="3">
-        <v>-1300</v>
+        <v>-1600</v>
       </c>
       <c r="N21" s="3">
-        <v>-1100</v>
+        <v>-2000</v>
       </c>
       <c r="O21" s="3">
         <v>-1300</v>
       </c>
       <c r="P21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1488,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1512,57 +1592,63 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2400</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1400</v>
       </c>
       <c r="G23" s="3">
         <v>-1800</v>
       </c>
       <c r="H23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-1300</v>
       </c>
       <c r="P23" s="3">
         <v>-1200</v>
@@ -1571,19 +1657,25 @@
         <v>-1300</v>
       </c>
       <c r="R23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T23" s="3">
         <v>-1800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,46 +1798,52 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2400</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-1400</v>
       </c>
       <c r="G26" s="3">
         <v>-1800</v>
       </c>
       <c r="H26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-1300</v>
       </c>
       <c r="P26" s="3">
         <v>-1200</v>
@@ -1748,78 +1852,90 @@
         <v>-1300</v>
       </c>
       <c r="R26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T26" s="3">
         <v>-1800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2400</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1400</v>
       </c>
       <c r="G27" s="3">
         <v>-1800</v>
       </c>
       <c r="H27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-1200</v>
       </c>
       <c r="Q27" s="3">
         <v>-1300</v>
       </c>
       <c r="R27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2188,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2072,14 +2212,14 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2102,78 +2242,90 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>100</v>
+      </c>
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2400</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1400</v>
       </c>
       <c r="G33" s="3">
         <v>-1800</v>
       </c>
       <c r="H33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-1200</v>
       </c>
       <c r="Q33" s="3">
         <v>-1300</v>
       </c>
       <c r="R33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2400</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1400</v>
       </c>
       <c r="G35" s="3">
         <v>-1800</v>
       </c>
       <c r="H35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-1200</v>
       </c>
       <c r="Q35" s="3">
         <v>-1300</v>
       </c>
       <c r="R35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2572,75 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F41" s="3">
         <v>12100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>14500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>15700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>9600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>5100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>6100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>7000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2698,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2530,55 +2716,61 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="I43" s="3">
+        <v>200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>200</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>100</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,126 +2828,144 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>100</v>
-      </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F46" s="3">
         <v>12300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>14800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>16100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>10000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>6300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>7200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +3023,14 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2825,10 +3041,10 @@
         <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>300</v>
@@ -2837,14 +3053,14 @@
         <v>300</v>
       </c>
       <c r="J48" s="3">
+        <v>300</v>
+      </c>
+      <c r="K48" s="3">
+        <v>300</v>
+      </c>
+      <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
@@ -2872,8 +3088,14 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3153,14 @@
       <c r="U49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>100</v>
+      </c>
+      <c r="W49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3283,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3058,10 +3298,10 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3108,8 +3348,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F54" s="3">
         <v>12700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>15100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>16400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>10400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>4700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3532,10 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3284,7 +3546,7 @@
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
@@ -3293,16 +3555,16 @@
         <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -3314,36 +3576,42 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>300</v>
-      </c>
-      <c r="S57" s="3">
-        <v>500</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
       </c>
       <c r="U57" s="3">
+        <v>500</v>
+      </c>
+      <c r="V57" s="3">
+        <v>300</v>
+      </c>
+      <c r="W57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3355,22 +3623,22 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>900</v>
       </c>
       <c r="M58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N58" s="3">
         <v>900</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
+      <c r="O58" s="3">
+        <v>900</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>5</v>
@@ -3387,56 +3655,62 @@
       <c r="T58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>100</v>
-      </c>
       <c r="R59" s="3">
         <v>100</v>
       </c>
@@ -3449,67 +3723,79 @@
       <c r="U59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E60" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F60" s="3">
         <v>1200</v>
       </c>
       <c r="G60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1800</v>
       </c>
       <c r="L60" s="3">
         <v>1800</v>
       </c>
       <c r="M60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>400</v>
-      </c>
-      <c r="S60" s="3">
-        <v>600</v>
       </c>
       <c r="T60" s="3">
         <v>400</v>
       </c>
       <c r="U60" s="3">
+        <v>600</v>
+      </c>
+      <c r="V60" s="3">
+        <v>400</v>
+      </c>
+      <c r="W60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3544,36 +3830,42 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>900</v>
-      </c>
-      <c r="O61" s="3">
-        <v>800</v>
-      </c>
-      <c r="P61" s="3">
-        <v>800</v>
       </c>
       <c r="Q61" s="3">
         <v>800</v>
       </c>
       <c r="R61" s="3">
+        <v>800</v>
+      </c>
+      <c r="S61" s="3">
+        <v>800</v>
+      </c>
+      <c r="T61" s="3">
         <v>1100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>400</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -3585,19 +3877,19 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
+      <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
+        <v>100</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
@@ -3608,11 +3900,11 @@
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3626,8 +3918,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E66" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="F66" s="3">
         <v>1100</v>
       </c>
       <c r="G66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1400</v>
       </c>
       <c r="S66" s="3">
         <v>1000</v>
       </c>
       <c r="T66" s="3">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="U66" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>700</v>
+      </c>
+      <c r="W66" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-119900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-117700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-115200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-113400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-112000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-110200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-109400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-107700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-105700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-104000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-102000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-100600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-99500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-98100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-96900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-95600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-93800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-92100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-90900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F76" s="3">
         <v>11600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>13700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>15300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>9400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3900</v>
       </c>
-      <c r="I76" s="3">
-        <v>100</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
+        <v>100</v>
+      </c>
+      <c r="L76" s="3">
         <v>1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>5200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>6100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4700</v>
       </c>
-      <c r="Q76" s="3">
-        <v>100</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
+        <v>100</v>
+      </c>
+      <c r="T76" s="3">
         <v>-900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>700</v>
       </c>
-      <c r="T76" s="3">
-        <v>100</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
+        <v>100</v>
+      </c>
+      <c r="W76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2400</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1400</v>
       </c>
       <c r="G81" s="3">
         <v>-1800</v>
       </c>
       <c r="H81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-1200</v>
       </c>
       <c r="Q81" s="3">
         <v>-1300</v>
       </c>
       <c r="R81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +5078,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,43 +5403,49 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-800</v>
       </c>
       <c r="O89" s="3">
         <v>-1000</v>
@@ -5023,19 +5457,25 @@
         <v>-1000</v>
       </c>
       <c r="R89" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="S89" s="3">
         <v>-1000</v>
       </c>
       <c r="T89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V89" s="3">
         <v>-800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5497,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5078,16 +5520,16 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
@@ -5095,11 +5537,11 @@
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5116,8 +5558,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5688,14 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5255,14 +5715,14 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5293,8 +5753,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +6038,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>7200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>7200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>4600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>2400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>5500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>1600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +6168,75 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G102" s="3">
         <v>-1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>6100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>5500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>3300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-300</v>
       </c>
       <c r="M102" s="3">
         <v>-1000</v>
       </c>
       <c r="N102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>4700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>900</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>AEMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -766,40 +770,40 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>100</v>
@@ -808,7 +812,7 @@
         <v>100</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -820,10 +824,13 @@
         <v>0</v>
       </c>
       <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,16 +1124,19 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1137,11 +1157,11 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1161,19 +1181,22 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>400</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-100</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1200</v>
       </c>
       <c r="S17" s="3">
         <v>1200</v>
       </c>
       <c r="T17" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="U17" s="3">
         <v>1500</v>
       </c>
       <c r="V17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-1500</v>
       </c>
       <c r="U18" s="3">
         <v>-1500</v>
       </c>
       <c r="V18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="W18" s="3">
         <v>-1200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1438,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1468,89 +1502,95 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-1200</v>
       </c>
       <c r="S21" s="3">
         <v>-1200</v>
       </c>
       <c r="T21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U21" s="3">
         <v>-1600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1574,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1598,84 +1638,90 @@
         <v>100</v>
       </c>
       <c r="T22" s="3">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2218,11 +2288,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2248,84 +2318,90 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E41" s="3">
         <v>25200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1600</v>
-      </c>
-      <c r="V41" s="3">
-        <v>600</v>
       </c>
       <c r="W41" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2722,7 +2815,7 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
@@ -2730,14 +2823,14 @@
       <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
+      <c r="K43" s="3">
+        <v>200</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2746,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
+      <c r="R43" s="3">
+        <v>100</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>5</v>
@@ -2760,17 +2853,20 @@
       <c r="T43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
       <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2843,13 +2942,13 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
@@ -2858,37 +2957,37 @@
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -2897,75 +2996,81 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E46" s="3">
         <v>25500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3047,7 +3155,7 @@
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
@@ -3059,11 +3167,11 @@
         <v>300</v>
       </c>
       <c r="L48" s="3">
+        <v>300</v>
+      </c>
+      <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
@@ -3094,13 +3202,16 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3304,7 +3424,7 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E54" s="3">
         <v>25900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,22 +3664,23 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -3561,14 +3692,14 @@
         <v>300</v>
       </c>
       <c r="K57" s="3">
+        <v>300</v>
+      </c>
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
@@ -3582,25 +3713,28 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
         <v>200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
       </c>
       <c r="U57" s="3">
+        <v>300</v>
+      </c>
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3629,19 +3763,19 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>900</v>
       </c>
       <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
+      <c r="P58" s="3">
+        <v>900</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>5</v>
@@ -3661,59 +3795,62 @@
       <c r="V58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W58" s="3">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>600</v>
       </c>
       <c r="L59" s="3">
         <v>600</v>
       </c>
       <c r="M59" s="3">
+        <v>600</v>
+      </c>
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
-      </c>
-      <c r="O59" s="3">
-        <v>300</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
       </c>
       <c r="Q59" s="3">
+        <v>300</v>
+      </c>
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
-        <v>100</v>
-      </c>
       <c r="S59" s="3">
         <v>100</v>
       </c>
@@ -3729,37 +3866,40 @@
       <c r="W59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1800</v>
       </c>
       <c r="M60" s="3">
         <v>1800</v>
@@ -3768,34 +3908,37 @@
         <v>1800</v>
       </c>
       <c r="O60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P60" s="3">
         <v>1300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>500</v>
       </c>
       <c r="Q60" s="3">
         <v>500</v>
       </c>
       <c r="R60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="S60" s="3">
         <v>300</v>
       </c>
       <c r="T60" s="3">
+        <v>300</v>
+      </c>
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3836,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>900</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>800</v>
       </c>
       <c r="R61" s="3">
         <v>800</v>
@@ -3848,27 +3991,30 @@
         <v>800</v>
       </c>
       <c r="T61" s="3">
+        <v>800</v>
+      </c>
+      <c r="U61" s="3">
         <v>1100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>400</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3883,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -3891,8 +4037,8 @@
       <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
+      <c r="M62" s="3">
+        <v>100</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
@@ -3906,8 +4052,8 @@
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1800</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1700</v>
       </c>
       <c r="N66" s="3">
         <v>1700</v>
       </c>
       <c r="O66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P66" s="3">
         <v>1100</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1200</v>
       </c>
       <c r="Q66" s="3">
         <v>1200</v>
       </c>
       <c r="R66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-122000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-119900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-117700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-115200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-113400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-112000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-110200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-109400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-107700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-105700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-104000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-102000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-100600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-99500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-98100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-96900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-95600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-93800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-92100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-90900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E76" s="3">
         <v>24900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3900</v>
       </c>
-      <c r="K76" s="3">
-        <v>100</v>
-      </c>
       <c r="L76" s="3">
+        <v>100</v>
+      </c>
+      <c r="M76" s="3">
         <v>1100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4700</v>
       </c>
-      <c r="S76" s="3">
-        <v>100</v>
-      </c>
       <c r="T76" s="3">
+        <v>100</v>
+      </c>
+      <c r="U76" s="3">
         <v>-900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>700</v>
       </c>
-      <c r="V76" s="3">
-        <v>100</v>
-      </c>
       <c r="W76" s="3">
+        <v>100</v>
+      </c>
+      <c r="X76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,13 +5217,14 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-2200</v>
       </c>
       <c r="F89" s="3">
         <v>-2200</v>
       </c>
       <c r="G89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5526,13 +5747,13 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
@@ -5543,8 +5764,8 @@
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5721,11 +5951,11 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>17400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>7200</v>
       </c>
       <c r="J100" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K100" s="3">
         <v>4600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>2400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E102" s="3">
         <v>15300</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-2300</v>
       </c>
       <c r="F102" s="3">
         <v>-2300</v>
       </c>
       <c r="G102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H102" s="3">
         <v>-1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>900</v>
       </c>
-      <c r="V102" s="3">
-        <v>100</v>
-      </c>
       <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
         <v>-700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>AEMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,148 +665,151 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
@@ -815,7 +818,7 @@
         <v>100</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
@@ -827,10 +830,13 @@
         <v>0</v>
       </c>
       <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1138,8 +1157,8 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1160,11 +1179,11 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1184,19 +1203,22 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>400</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>-100</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1200</v>
       </c>
       <c r="T17" s="3">
         <v>1200</v>
       </c>
       <c r="U17" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="V17" s="3">
         <v>1500</v>
       </c>
       <c r="W17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-1500</v>
       </c>
       <c r="V18" s="3">
         <v>-1500</v>
       </c>
       <c r="W18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="X18" s="3">
         <v>-1200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,13 +1480,14 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1475,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1505,95 +1538,101 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-1200</v>
       </c>
       <c r="T21" s="3">
         <v>-1200</v>
       </c>
       <c r="U21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="V21" s="3">
         <v>-1600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1617,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1641,87 +1680,93 @@
         <v>100</v>
       </c>
       <c r="U22" s="3">
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
         <v>200</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,13 +2330,16 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2291,11 +2360,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2321,87 +2390,93 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>100</v>
+      </c>
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E41" s="3">
         <v>23200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>25200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1600</v>
-      </c>
-      <c r="W41" s="3">
-        <v>600</v>
       </c>
       <c r="X41" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2818,7 +2910,7 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>200</v>
@@ -2826,14 +2918,14 @@
       <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
+      <c r="L43" s="3">
+        <v>200</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2842,13 +2934,13 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
+      <c r="S43" s="3">
+        <v>100</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>5</v>
@@ -2856,17 +2948,20 @@
       <c r="U43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
       <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,25 +3028,28 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
@@ -2960,37 +3058,37 @@
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -2999,78 +3097,84 @@
         <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E46" s="3">
         <v>23600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>25500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,13 +3241,16 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -3158,7 +3265,7 @@
         <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
@@ -3170,11 +3277,11 @@
         <v>300</v>
       </c>
       <c r="M48" s="3">
+        <v>300</v>
+      </c>
+      <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3214,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3427,7 +3546,7 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E54" s="3">
         <v>23900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>25900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,25 +3794,26 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -3695,14 +3825,14 @@
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
@@ -3716,25 +3846,28 @@
         <v>100</v>
       </c>
       <c r="S57" s="3">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
         <v>200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
       </c>
       <c r="V57" s="3">
+        <v>300</v>
+      </c>
+      <c r="W57" s="3">
         <v>500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3766,19 +3899,19 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>900</v>
       </c>
       <c r="P58" s="3">
         <v>900</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
+      <c r="Q58" s="3">
+        <v>900</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>5</v>
@@ -3798,62 +3931,65 @@
       <c r="W58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>600</v>
       </c>
       <c r="M59" s="3">
         <v>600</v>
       </c>
       <c r="N59" s="3">
+        <v>600</v>
+      </c>
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
-      </c>
-      <c r="P59" s="3">
-        <v>300</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
       </c>
       <c r="R59" s="3">
+        <v>300</v>
+      </c>
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="S59" s="3">
-        <v>100</v>
-      </c>
       <c r="T59" s="3">
         <v>100</v>
       </c>
@@ -3869,40 +4005,43 @@
       <c r="X59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1800</v>
       </c>
       <c r="N60" s="3">
         <v>1800</v>
@@ -3911,34 +4050,37 @@
         <v>1800</v>
       </c>
       <c r="P60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>500</v>
       </c>
       <c r="R60" s="3">
         <v>500</v>
       </c>
       <c r="S60" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T60" s="3">
         <v>300</v>
       </c>
       <c r="U60" s="3">
+        <v>300</v>
+      </c>
+      <c r="V60" s="3">
         <v>400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3982,10 +4124,10 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>900</v>
-      </c>
-      <c r="R61" s="3">
-        <v>800</v>
       </c>
       <c r="S61" s="3">
         <v>800</v>
@@ -3994,30 +4136,33 @@
         <v>800</v>
       </c>
       <c r="U61" s="3">
+        <v>800</v>
+      </c>
+      <c r="V61" s="3">
         <v>1100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>400</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
+      <c r="D62" s="3">
+        <v>300</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -4032,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -4040,8 +4185,8 @@
       <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
+      <c r="N62" s="3">
+        <v>100</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>5</v>
@@ -4055,8 +4200,8 @@
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1800</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1700</v>
       </c>
       <c r="O66" s="3">
         <v>1700</v>
       </c>
       <c r="P66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1200</v>
       </c>
       <c r="R66" s="3">
         <v>1200</v>
       </c>
       <c r="S66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-126500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-124000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-122000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-119900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-117700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-115200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-113400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-112000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-110200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-109400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-107700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-105700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-104000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-102000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-100600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-99500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-98100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-96900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-95600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-93800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-92100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-90900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E76" s="3">
         <v>23000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>24900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3900</v>
       </c>
-      <c r="L76" s="3">
-        <v>100</v>
-      </c>
       <c r="M76" s="3">
+        <v>100</v>
+      </c>
+      <c r="N76" s="3">
         <v>1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4700</v>
       </c>
-      <c r="T76" s="3">
-        <v>100</v>
-      </c>
       <c r="U76" s="3">
+        <v>100</v>
+      </c>
+      <c r="V76" s="3">
         <v>-900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>700</v>
       </c>
-      <c r="W76" s="3">
-        <v>100</v>
-      </c>
       <c r="X76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,16 +5415,17 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-2200</v>
       </c>
       <c r="G89" s="3">
         <v>-2200</v>
       </c>
       <c r="H89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,13 +5939,14 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5750,13 +5970,13 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
@@ -5767,8 +5987,8 @@
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,13 +6150,16 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5954,11 +6183,11 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,67 +6544,70 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>17400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>7200</v>
       </c>
       <c r="K100" s="3">
+        <v>7200</v>
+      </c>
+      <c r="L100" s="3">
         <v>4600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>2400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>5500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15300</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-2300</v>
       </c>
       <c r="G102" s="3">
         <v>-2300</v>
       </c>
       <c r="H102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>900</v>
       </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
       <c r="X102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>AEMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,115 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -773,58 +781,58 @@
         <v>5</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T8" s="3">
         <v>100</v>
       </c>
       <c r="U8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W8" s="3">
         <v>0</v>
@@ -833,10 +841,16 @@
         <v>0</v>
       </c>
       <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,11 +1200,11 @@
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1182,14 +1222,14 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1206,19 +1246,25 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>400</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-100</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,43 +1364,45 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F17" s="3">
         <v>2500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>2000</v>
       </c>
       <c r="O17" s="3">
         <v>1700</v>
@@ -1357,10 +1411,10 @@
         <v>2000</v>
       </c>
       <c r="Q17" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="R17" s="3">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="S17" s="3">
         <v>1300</v>
@@ -1369,22 +1423,28 @@
         <v>1200</v>
       </c>
       <c r="U17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X17" s="3">
         <v>1500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,49 +1452,49 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1400</v>
       </c>
       <c r="K18" s="3">
         <v>-1800</v>
       </c>
       <c r="L18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-1600</v>
       </c>
       <c r="P18" s="3">
         <v>-2000</v>
       </c>
       <c r="Q18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-1200</v>
       </c>
       <c r="T18" s="3">
         <v>-1100</v>
@@ -1443,19 +1503,25 @@
         <v>-1200</v>
       </c>
       <c r="V18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="X18" s="3">
         <v>-1500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-1500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1511,13 +1579,13 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1541,19 +1609,25 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,70 +1635,76 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-1400</v>
       </c>
       <c r="K21" s="3">
         <v>-1800</v>
       </c>
       <c r="L21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-1600</v>
       </c>
       <c r="P21" s="3">
         <v>-2000</v>
       </c>
       <c r="Q21" s="3">
-        <v>-1300</v>
+        <v>-1600</v>
       </c>
       <c r="R21" s="3">
-        <v>-1100</v>
+        <v>-2000</v>
       </c>
       <c r="S21" s="3">
         <v>-1300</v>
       </c>
       <c r="T21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="U21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="V21" s="3">
         <v>-1200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-1600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-1700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1634,11 +1714,11 @@
       <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1659,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1683,69 +1763,75 @@
         <v>100</v>
       </c>
       <c r="V22" s="3">
+        <v>100</v>
+      </c>
+      <c r="W22" s="3">
+        <v>100</v>
+      </c>
+      <c r="X22" s="3">
         <v>200</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1400</v>
       </c>
       <c r="K23" s="3">
         <v>-1800</v>
       </c>
       <c r="L23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-1300</v>
       </c>
       <c r="T23" s="3">
         <v>-1200</v>
@@ -1754,19 +1840,25 @@
         <v>-1300</v>
       </c>
       <c r="V23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="X23" s="3">
         <v>-1800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,58 +2005,64 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-1400</v>
       </c>
       <c r="K26" s="3">
         <v>-1800</v>
       </c>
       <c r="L26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1400</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-1300</v>
       </c>
       <c r="T26" s="3">
         <v>-1200</v>
@@ -1967,90 +2071,102 @@
         <v>-1300</v>
       </c>
       <c r="V26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="X26" s="3">
         <v>-1800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-1400</v>
       </c>
       <c r="K27" s="3">
         <v>-1800</v>
       </c>
       <c r="L27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-1200</v>
       </c>
       <c r="U27" s="3">
         <v>-1300</v>
       </c>
       <c r="V27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="X27" s="3">
         <v>-1800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2363,14 +2503,14 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2393,90 +2533,102 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-1400</v>
       </c>
       <c r="K33" s="3">
         <v>-1800</v>
       </c>
       <c r="L33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-1200</v>
       </c>
       <c r="U33" s="3">
         <v>-1300</v>
       </c>
       <c r="V33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="X33" s="3">
         <v>-1800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-1400</v>
       </c>
       <c r="K35" s="3">
         <v>-1800</v>
       </c>
       <c r="L35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-1200</v>
       </c>
       <c r="U35" s="3">
         <v>-1300</v>
       </c>
       <c r="V35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="X35" s="3">
         <v>-1800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2919,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F41" s="3">
         <v>20400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>23200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>25200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>9900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>12100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>14500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>15700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>9600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>5100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>6100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>7000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>5600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2913,55 +3099,61 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="M43" s="3">
+        <v>200</v>
+      </c>
+      <c r="N43" s="3">
+        <v>200</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
+        <v>100</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-      <c r="X43" s="3">
-        <v>0</v>
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,150 +3223,168 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
-      </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>100</v>
-      </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3">
-        <v>100</v>
-      </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F46" s="3">
         <v>21200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>23600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>25500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>10400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>12300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>14800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>16100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>10000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>5200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>6300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>7200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>5600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,19 +3454,25 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F48" s="3">
         <v>600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -3268,10 +3484,10 @@
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>300</v>
@@ -3280,14 +3496,14 @@
         <v>300</v>
       </c>
       <c r="N48" s="3">
+        <v>300</v>
+      </c>
+      <c r="O48" s="3">
+        <v>300</v>
+      </c>
+      <c r="P48" s="3">
         <v>200</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
@@ -3315,8 +3531,14 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3327,10 +3549,10 @@
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3549,10 +3789,10 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F54" s="3">
         <v>21900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>23900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>25900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>10700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>12700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>15100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>16400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>6500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>7400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>5800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,16 +4055,18 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -3819,7 +4081,7 @@
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -3828,16 +4090,16 @@
         <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -3849,25 +4111,31 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
-      </c>
-      <c r="V57" s="3">
-        <v>300</v>
-      </c>
-      <c r="W57" s="3">
-        <v>500</v>
       </c>
       <c r="X57" s="3">
         <v>300</v>
       </c>
       <c r="Y57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3902,22 +4170,22 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>900</v>
       </c>
       <c r="Q58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R58" s="3">
         <v>900</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
+      <c r="S58" s="3">
+        <v>900</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>5</v>
@@ -3934,68 +4202,74 @@
       <c r="X58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
-        <v>100</v>
-      </c>
-      <c r="U59" s="3">
-        <v>100</v>
-      </c>
       <c r="V59" s="3">
         <v>100</v>
       </c>
@@ -4008,79 +4282,91 @@
       <c r="Y59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="E60" s="3">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="F60" s="3">
         <v>1100</v>
       </c>
       <c r="G60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I60" s="3">
         <v>1400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1500</v>
       </c>
       <c r="J60" s="3">
         <v>1200</v>
       </c>
       <c r="K60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1800</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1800</v>
       </c>
       <c r="P60" s="3">
         <v>1800</v>
       </c>
       <c r="Q60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>300</v>
-      </c>
-      <c r="V60" s="3">
-        <v>400</v>
-      </c>
-      <c r="W60" s="3">
-        <v>600</v>
       </c>
       <c r="X60" s="3">
         <v>400</v>
       </c>
       <c r="Y60" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4127,48 +4413,54 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>900</v>
-      </c>
-      <c r="S61" s="3">
-        <v>800</v>
-      </c>
-      <c r="T61" s="3">
-        <v>800</v>
       </c>
       <c r="U61" s="3">
         <v>800</v>
       </c>
       <c r="V61" s="3">
+        <v>800</v>
+      </c>
+      <c r="W61" s="3">
+        <v>800</v>
+      </c>
+      <c r="X61" s="3">
         <v>1100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>400</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>600</v>
+      </c>
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -4180,19 +4472,19 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
+      <c r="O62" s="3">
+        <v>100</v>
+      </c>
+      <c r="P62" s="3">
+        <v>100</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>5</v>
@@ -4203,11 +4495,11 @@
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1400</v>
       </c>
       <c r="J66" s="3">
         <v>1100</v>
       </c>
       <c r="K66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1100</v>
-      </c>
-      <c r="U66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="V66" s="3">
-        <v>1400</v>
       </c>
       <c r="W66" s="3">
         <v>1000</v>
       </c>
       <c r="X66" s="3">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="Y66" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-133200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-130300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-126500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-124000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-122000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-119900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-117700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-115200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-113400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-112000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-110200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-109400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-107700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-105700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-104000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-102000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-100600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-99500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-98100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-96900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-95600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-93800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-92100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-90900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F76" s="3">
         <v>20700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>23000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>24900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>9400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>11600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>13700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>15300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>9400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3900</v>
       </c>
-      <c r="M76" s="3">
-        <v>100</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
+        <v>100</v>
+      </c>
+      <c r="P76" s="3">
         <v>1100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>5200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>6100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>4700</v>
       </c>
-      <c r="U76" s="3">
-        <v>100</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
+        <v>100</v>
+      </c>
+      <c r="X76" s="3">
         <v>-900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>700</v>
       </c>
-      <c r="X76" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-1400</v>
       </c>
       <c r="K81" s="3">
         <v>-1800</v>
       </c>
       <c r="L81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-1200</v>
       </c>
       <c r="U81" s="3">
         <v>-1300</v>
       </c>
       <c r="V81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="X81" s="3">
         <v>-1800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5425,13 +5823,13 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6270,14 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5851,46 +6285,46 @@
         <v>-2700</v>
       </c>
       <c r="E89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-800</v>
       </c>
       <c r="S89" s="3">
         <v>-1000</v>
@@ -5902,19 +6336,25 @@
         <v>-1000</v>
       </c>
       <c r="V89" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="W89" s="3">
         <v>-1000</v>
       </c>
       <c r="X89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,20 +6380,22 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -5973,16 +6415,16 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
@@ -5990,11 +6432,11 @@
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,20 +6607,26 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -6186,14 +6646,14 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +7021,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>17400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>7200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>7200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>4600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>2400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>5500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>1600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>1900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +7175,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>15300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>6100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>5500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>3300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-300</v>
       </c>
       <c r="Q102" s="3">
         <v>-1000</v>
       </c>
       <c r="R102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T102" s="3">
         <v>-900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>4700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>900</v>
       </c>
-      <c r="X102" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>AEMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,122 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -787,58 +794,58 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V8" s="3">
         <v>100</v>
       </c>
       <c r="W8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y8" s="3">
         <v>0</v>
@@ -847,10 +854,16 @@
         <v>0</v>
       </c>
       <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +939,14 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1022,14 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1057,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1136,14 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,19 +1219,25 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
@@ -1206,11 +1245,11 @@
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1228,14 +1267,14 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1252,19 +1291,25 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>400</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>-100</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,49 +1417,51 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F17" s="3">
         <v>2900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1700</v>
-      </c>
-      <c r="P17" s="3">
-        <v>2000</v>
       </c>
       <c r="Q17" s="3">
         <v>1700</v>
@@ -1417,10 +1470,10 @@
         <v>2000</v>
       </c>
       <c r="S17" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="T17" s="3">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="U17" s="3">
         <v>1300</v>
@@ -1429,22 +1482,28 @@
         <v>1200</v>
       </c>
       <c r="W17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X17" s="3">
         <v>1200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z17" s="3">
         <v>1500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,55 +1511,55 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1400</v>
       </c>
       <c r="M18" s="3">
         <v>-1800</v>
       </c>
       <c r="N18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-1600</v>
       </c>
       <c r="R18" s="3">
         <v>-2000</v>
       </c>
       <c r="S18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="U18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-1200</v>
       </c>
       <c r="V18" s="3">
         <v>-1100</v>
@@ -1509,19 +1568,25 @@
         <v>-1200</v>
       </c>
       <c r="X18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1614,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1585,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1615,19 +1682,25 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,76 +1708,82 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G21" s="3">
         <v>-3800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2400</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-1400</v>
       </c>
       <c r="M21" s="3">
         <v>-1800</v>
       </c>
       <c r="N21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-1600</v>
       </c>
       <c r="R21" s="3">
         <v>-2000</v>
       </c>
       <c r="S21" s="3">
-        <v>-1300</v>
+        <v>-1600</v>
       </c>
       <c r="T21" s="3">
-        <v>-1100</v>
+        <v>-2000</v>
       </c>
       <c r="U21" s="3">
         <v>-1300</v>
       </c>
       <c r="V21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="W21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="X21" s="3">
         <v>-1200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-1200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1720,11 +1799,11 @@
       <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1745,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1769,75 +1848,81 @@
         <v>100</v>
       </c>
       <c r="X22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z22" s="3">
         <v>200</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-3800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-1400</v>
       </c>
       <c r="M23" s="3">
         <v>-1800</v>
       </c>
       <c r="N23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-1300</v>
       </c>
       <c r="V23" s="3">
         <v>-1200</v>
@@ -1846,19 +1931,25 @@
         <v>-1300</v>
       </c>
       <c r="X23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +2025,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,64 +2108,70 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-3800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-1400</v>
       </c>
       <c r="M26" s="3">
         <v>-1800</v>
       </c>
       <c r="N26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1400</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-1300</v>
       </c>
       <c r="V26" s="3">
         <v>-1200</v>
@@ -2077,96 +2180,108 @@
         <v>-1300</v>
       </c>
       <c r="X26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-3800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-1400</v>
       </c>
       <c r="M27" s="3">
         <v>-1800</v>
       </c>
       <c r="N27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-1200</v>
       </c>
       <c r="W27" s="3">
         <v>-1300</v>
       </c>
       <c r="X27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2606,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2509,14 +2648,14 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2539,96 +2678,108 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-3800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-1400</v>
       </c>
       <c r="M33" s="3">
         <v>-1800</v>
       </c>
       <c r="N33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-1200</v>
       </c>
       <c r="W33" s="3">
         <v>-1300</v>
       </c>
       <c r="X33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-3800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-1400</v>
       </c>
       <c r="M35" s="3">
         <v>-1800</v>
       </c>
       <c r="N35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-1200</v>
       </c>
       <c r="W35" s="3">
         <v>-1300</v>
       </c>
       <c r="X35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3092,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F41" s="3">
         <v>14900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>17100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>20400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>23200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>25200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>9900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>12100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>14500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>15700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>9600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>4800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>5100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>6100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>7000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>5600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,13 +3254,19 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -3105,55 +3290,61 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="O43" s="3">
+        <v>200</v>
+      </c>
+      <c r="P43" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
+        <v>100</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>0</v>
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,162 +3420,180 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>800</v>
+      </c>
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
-      </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <v>100</v>
-      </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3">
-        <v>100</v>
-      </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z45" s="3">
         <v>0</v>
       </c>
       <c r="AA45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F46" s="3">
         <v>15900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>18200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>21200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>23600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>25500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>10400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>12300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>14800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>16100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>10000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>4900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>5200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>6300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>7200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>5600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,25 +3669,31 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F48" s="3">
         <v>1100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
@@ -3490,10 +3705,10 @@
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>300</v>
@@ -3502,14 +3717,14 @@
         <v>300</v>
       </c>
       <c r="P48" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>300</v>
+      </c>
+      <c r="R48" s="3">
         <v>200</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
@@ -3537,8 +3752,14 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3555,10 +3776,10 @@
         <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
@@ -3614,8 +3835,14 @@
       <c r="AA49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +4001,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3795,10 +4034,10 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3845,8 +4084,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F54" s="3">
         <v>17100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>19400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>21900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>23900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>25900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>10700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>12700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>15100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>16400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>6500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>7400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>5800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,22 +4316,24 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -4087,7 +4348,7 @@
         <v>300</v>
       </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
@@ -4096,16 +4357,16 @@
         <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -4117,25 +4378,31 @@
         <v>100</v>
       </c>
       <c r="V57" s="3">
+        <v>100</v>
+      </c>
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+      <c r="X57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>300</v>
-      </c>
-      <c r="X57" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>500</v>
       </c>
       <c r="Z57" s="3">
         <v>300</v>
       </c>
       <c r="AA57" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4176,22 +4443,22 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>900</v>
       </c>
       <c r="S58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T58" s="3">
         <v>900</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
+      <c r="U58" s="3">
+        <v>900</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>5</v>
@@ -4208,74 +4475,80 @@
       <c r="Z58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AA58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
-        <v>100</v>
-      </c>
-      <c r="W59" s="3">
-        <v>100</v>
-      </c>
       <c r="X59" s="3">
         <v>100</v>
       </c>
@@ -4288,85 +4561,97 @@
       <c r="AA59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1000</v>
       </c>
       <c r="H60" s="3">
         <v>1100</v>
       </c>
       <c r="I60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1500</v>
       </c>
       <c r="L60" s="3">
         <v>1200</v>
       </c>
       <c r="M60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1800</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1800</v>
       </c>
       <c r="R60" s="3">
         <v>1800</v>
       </c>
       <c r="S60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U60" s="3">
         <v>1300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>300</v>
-      </c>
-      <c r="X60" s="3">
-        <v>400</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>600</v>
       </c>
       <c r="Z60" s="3">
         <v>400</v>
       </c>
       <c r="AA60" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4419,54 +4704,60 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>900</v>
-      </c>
-      <c r="U61" s="3">
-        <v>800</v>
-      </c>
-      <c r="V61" s="3">
-        <v>800</v>
       </c>
       <c r="W61" s="3">
         <v>800</v>
       </c>
       <c r="X61" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z61" s="3">
         <v>1100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>400</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -4478,19 +4769,19 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
+      <c r="Q62" s="3">
+        <v>100</v>
+      </c>
+      <c r="R62" s="3">
+        <v>100</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
@@ -4501,11 +4792,11 @@
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4519,8 +4810,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F66" s="3">
         <v>2100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1400</v>
       </c>
       <c r="L66" s="3">
         <v>1100</v>
       </c>
       <c r="M66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1100</v>
-      </c>
-      <c r="W66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="X66" s="3">
-        <v>1400</v>
       </c>
       <c r="Y66" s="3">
         <v>1000</v>
       </c>
       <c r="Z66" s="3">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="AA66" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-139900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-137000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-133200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-130300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-126500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-124000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-122000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-119900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-117700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-115200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-113400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-112000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-110200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-109400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-107700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-105700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-104000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-102000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-100600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-99500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-98100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-96900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-95600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-93800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-92100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-90900</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F76" s="3">
         <v>15100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>17100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>20700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>23000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>24900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>9400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>11600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>13700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>15300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>9400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3900</v>
       </c>
-      <c r="O76" s="3">
-        <v>100</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
+        <v>100</v>
+      </c>
+      <c r="R76" s="3">
         <v>1100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>3300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>4100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>5200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>6100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>4700</v>
       </c>
-      <c r="W76" s="3">
-        <v>100</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>700</v>
       </c>
-      <c r="Z76" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-3800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-1400</v>
       </c>
       <c r="M81" s="3">
         <v>-1800</v>
       </c>
       <c r="N81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-1200</v>
       </c>
       <c r="W81" s="3">
         <v>-1300</v>
       </c>
       <c r="X81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,28 +6209,30 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -5891,8 +6288,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,61 +6703,67 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2700</v>
+        <v>-2000</v>
       </c>
       <c r="E89" s="3">
-        <v>-3100</v>
+        <v>-5600</v>
       </c>
       <c r="F89" s="3">
         <v>-2700</v>
       </c>
       <c r="G89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I89" s="3">
         <v>-1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-800</v>
       </c>
       <c r="U89" s="3">
         <v>-1000</v>
@@ -6342,19 +6775,25 @@
         <v>-1000</v>
       </c>
       <c r="X89" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="Y89" s="3">
         <v>-1000</v>
       </c>
       <c r="Z89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,26 +6821,28 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -6421,16 +6862,16 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>5</v>
@@ -6438,11 +6879,11 @@
       <c r="T91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6459,8 +6900,14 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,26 +7066,32 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -6652,14 +7111,14 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -6690,8 +7149,14 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7512,97 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>17400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>7200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>7200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>4600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>2400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>5500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>1600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>1900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7678,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-3300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>15300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>6100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>5500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>3300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1300</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-300</v>
       </c>
       <c r="S102" s="3">
         <v>-1000</v>
       </c>
       <c r="T102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V102" s="3">
         <v>-900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>1400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>4700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>900</v>
       </c>
-      <c r="Z102" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AEMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEMD_QTR_FIN.xlsx
@@ -6832,7 +6832,7 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/AEMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AEMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>AEMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,130 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,7 +796,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -800,58 +808,58 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
       <c r="U8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X8" s="3">
         <v>100</v>
       </c>
       <c r="Y8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA8" s="3">
         <v>0</v>
@@ -860,10 +868,16 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -945,8 +959,14 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1048,14 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,25 +1259,31 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
+      <c r="G14" s="3">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
@@ -1251,11 +1291,11 @@
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1273,14 +1313,14 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1297,19 +1337,25 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>400</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>-100</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,55 +1471,57 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F17" s="3">
         <v>2800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>6700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1700</v>
-      </c>
-      <c r="R17" s="3">
-        <v>2000</v>
       </c>
       <c r="S17" s="3">
         <v>1700</v>
@@ -1476,10 +1530,10 @@
         <v>2000</v>
       </c>
       <c r="U17" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="V17" s="3">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="W17" s="3">
         <v>1300</v>
@@ -1488,22 +1542,28 @@
         <v>1200</v>
       </c>
       <c r="Y17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z17" s="3">
         <v>1200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB17" s="3">
         <v>1500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>1200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1511,61 +1571,61 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-6700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-1400</v>
       </c>
       <c r="O18" s="3">
         <v>-1800</v>
       </c>
       <c r="P18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1700</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-1600</v>
       </c>
       <c r="T18" s="3">
         <v>-2000</v>
       </c>
       <c r="U18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="W18" s="3">
         <v>-1300</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-1200</v>
       </c>
       <c r="X18" s="3">
         <v>-1100</v>
@@ -1574,19 +1634,25 @@
         <v>-1200</v>
       </c>
       <c r="Z18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,8 +1682,10 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1658,13 +1726,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1688,19 +1756,25 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-200</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1708,82 +1782,88 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-6600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-2400</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-1400</v>
       </c>
       <c r="O21" s="3">
         <v>-1800</v>
       </c>
       <c r="P21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1700</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-1600</v>
       </c>
       <c r="T21" s="3">
         <v>-2000</v>
       </c>
       <c r="U21" s="3">
-        <v>-1300</v>
+        <v>-1600</v>
       </c>
       <c r="V21" s="3">
-        <v>-1100</v>
+        <v>-2000</v>
       </c>
       <c r="W21" s="3">
         <v>-1300</v>
       </c>
       <c r="X21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1805,11 +1885,11 @@
       <c r="I22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1830,10 +1910,10 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
@@ -1854,81 +1934,87 @@
         <v>100</v>
       </c>
       <c r="Z22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB22" s="3">
         <v>200</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-6700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1400</v>
       </c>
       <c r="O23" s="3">
         <v>-1800</v>
       </c>
       <c r="P23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-2000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1400</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-1300</v>
       </c>
       <c r="X23" s="3">
         <v>-1200</v>
@@ -1937,19 +2023,25 @@
         <v>-1300</v>
       </c>
       <c r="Z23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,70 +2212,76 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-6700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-1400</v>
       </c>
       <c r="O26" s="3">
         <v>-1800</v>
       </c>
       <c r="P26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-2000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1400</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-1300</v>
       </c>
       <c r="X26" s="3">
         <v>-1200</v>
@@ -2186,102 +2290,114 @@
         <v>-1300</v>
       </c>
       <c r="Z26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-6700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-1400</v>
       </c>
       <c r="O27" s="3">
         <v>-1800</v>
       </c>
       <c r="P27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-2000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1100</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-1200</v>
       </c>
       <c r="Y27" s="3">
         <v>-1300</v>
       </c>
       <c r="Z27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,8 +2746,14 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2654,14 +2794,14 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2684,102 +2824,114 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC32" s="3">
         <v>200</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-6700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-1400</v>
       </c>
       <c r="O33" s="3">
         <v>-1800</v>
       </c>
       <c r="P33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-2000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1100</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-1200</v>
       </c>
       <c r="Y33" s="3">
         <v>-1300</v>
       </c>
       <c r="Z33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-6700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-1400</v>
       </c>
       <c r="O35" s="3">
         <v>-1800</v>
       </c>
       <c r="P35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-2000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1100</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-1200</v>
       </c>
       <c r="Y35" s="3">
         <v>-1300</v>
       </c>
       <c r="Z35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3266,99 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F41" s="3">
         <v>17500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>19600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>14900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>17100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>20400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>23200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>25200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>9900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>12100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>14500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>15700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>9600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>3800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>4800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>5100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>6100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>7000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>5600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>1600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,19 +3440,25 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -3296,55 +3482,61 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3">
+        <v>200</v>
+      </c>
+      <c r="R43" s="3">
+        <v>200</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>100</v>
       </c>
       <c r="Z43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>0</v>
+      <c r="AA43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,174 +3618,192 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>600</v>
+      </c>
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
-      </c>
       <c r="N45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3">
-        <v>100</v>
-      </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>100</v>
-      </c>
       <c r="Z45" s="3">
         <v>0</v>
       </c>
       <c r="AA45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB45" s="3">
         <v>0</v>
       </c>
       <c r="AC45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F46" s="3">
         <v>18200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>20500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>15900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>18200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>21200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>23600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>25500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>10400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>12300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>14800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>16100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>10000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>4900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>5200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>6300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>7200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>5600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,8 +3885,14 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3684,22 +3900,22 @@
         <v>2400</v>
       </c>
       <c r="E48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F48" s="3">
         <v>2400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H48" s="3">
         <v>1100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -3711,10 +3927,10 @@
         <v>200</v>
       </c>
       <c r="N48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>300</v>
@@ -3723,14 +3939,14 @@
         <v>300</v>
       </c>
       <c r="R48" s="3">
+        <v>300</v>
+      </c>
+      <c r="S48" s="3">
+        <v>300</v>
+      </c>
+      <c r="T48" s="3">
         <v>200</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
       <c r="U48" s="3">
         <v>0</v>
       </c>
@@ -3758,8 +3974,14 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3782,10 +4004,10 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
         <v>100</v>
@@ -3841,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4040,10 +4280,10 @@
         <v>100</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -4090,8 +4330,14 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F54" s="3">
         <v>20700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>23000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>17100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>19400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>21900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>23900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>25900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>12700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>15100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>16400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>10400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>4700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>4100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>5000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>5300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>6500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>7400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>5800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>1700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,28 +4578,30 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -4354,7 +4616,7 @@
         <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
@@ -4363,16 +4625,16 @@
         <v>300</v>
       </c>
       <c r="Q57" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
@@ -4384,25 +4646,31 @@
         <v>100</v>
       </c>
       <c r="X57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z57" s="3">
         <v>200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>300</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>300</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>500</v>
       </c>
       <c r="AB57" s="3">
         <v>300</v>
       </c>
       <c r="AC57" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4449,22 +4717,22 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>900</v>
       </c>
       <c r="U58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V58" s="3">
         <v>900</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
+      <c r="W58" s="3">
+        <v>900</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>5</v>
@@ -4481,80 +4749,86 @@
       <c r="AB58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AC58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE58" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
-      <c r="X59" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>100</v>
-      </c>
       <c r="Z59" s="3">
         <v>100</v>
       </c>
@@ -4567,91 +4841,103 @@
       <c r="AC59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1000</v>
       </c>
       <c r="J60" s="3">
         <v>1100</v>
       </c>
       <c r="K60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M60" s="3">
         <v>1400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1500</v>
       </c>
       <c r="N60" s="3">
         <v>1200</v>
       </c>
       <c r="O60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1800</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1800</v>
       </c>
       <c r="T60" s="3">
         <v>1800</v>
       </c>
       <c r="U60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>300</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>400</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>600</v>
       </c>
       <c r="AB60" s="3">
         <v>400</v>
       </c>
       <c r="AC60" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4710,60 +4996,66 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>900</v>
-      </c>
-      <c r="W61" s="3">
-        <v>800</v>
-      </c>
-      <c r="X61" s="3">
-        <v>800</v>
       </c>
       <c r="Y61" s="3">
         <v>800</v>
       </c>
       <c r="Z61" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB61" s="3">
         <v>1100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>400</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>900</v>
+      </c>
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -4775,19 +5067,19 @@
         <v>0</v>
       </c>
       <c r="P62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
+      <c r="S62" s="3">
+        <v>100</v>
+      </c>
+      <c r="T62" s="3">
+        <v>100</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>5</v>
@@ -4798,11 +5090,11 @@
       <c r="W62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4816,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F66" s="3">
         <v>3400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1400</v>
       </c>
       <c r="N66" s="3">
         <v>1100</v>
       </c>
       <c r="O66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1100</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>1400</v>
       </c>
       <c r="AA66" s="3">
         <v>1000</v>
       </c>
       <c r="AB66" s="3">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="AC66" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE66" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-145600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-142400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-139900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-137000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-133200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-130300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-126500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-124000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-122000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-119900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-117700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-115200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-113400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-112000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-110200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-109400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-107700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-105700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-104000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-102000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-100600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-99500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-98100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-96900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-95600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-93800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-92100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-90900</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F76" s="3">
         <v>17300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>19900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>15100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>17100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>20700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>23000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>24900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>9400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>11600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>13700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>15300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>9400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3900</v>
       </c>
-      <c r="Q76" s="3">
-        <v>100</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
+        <v>100</v>
+      </c>
+      <c r="T76" s="3">
         <v>1100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>3300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>4100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>5200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>6100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>4700</v>
       </c>
-      <c r="Y76" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB76" s="3">
         <v>-900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>700</v>
       </c>
-      <c r="AB76" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-6700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-1400</v>
       </c>
       <c r="O81" s="3">
         <v>-1800</v>
       </c>
       <c r="P81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-2000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1100</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-1200</v>
       </c>
       <c r="Y81" s="3">
         <v>-1300</v>
       </c>
       <c r="Z81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6223,22 +6621,22 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -6294,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,67 +7137,73 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-5600</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-3100</v>
       </c>
       <c r="H89" s="3">
         <v>-2700</v>
       </c>
       <c r="I89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-800</v>
       </c>
       <c r="W89" s="3">
         <v>-1000</v>
@@ -6781,19 +7215,25 @@
         <v>-1000</v>
       </c>
       <c r="Z89" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="AA89" s="3">
         <v>-1000</v>
       </c>
       <c r="AB89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6832,23 +7274,23 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -6868,16 +7310,16 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>5</v>
@@ -6885,11 +7327,11 @@
       <c r="V91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -6906,8 +7348,14 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7526,14 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7081,23 +7541,23 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -7117,14 +7577,14 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -7155,8 +7615,14 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,114 +8004,126 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>8900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>17400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>7200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>7200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>4600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>2400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>5500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>1600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>1900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -7684,87 +8182,99 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>15300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>6100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>5500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>3300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-300</v>
       </c>
       <c r="U102" s="3">
         <v>-1000</v>
       </c>
       <c r="V102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="X102" s="3">
         <v>-900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>1400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>4700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>900</v>
       </c>
-      <c r="AB102" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-700</v>
       </c>
     </row>
